--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbhosash\Desktop\23rd Jan\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36AC26-CA17-4B58-9AF2-7D6A9DB0367B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="5604"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Color Codes</t>
   </si>
@@ -75,9 +76,6 @@
   </si>
   <si>
     <t>MZX 125</t>
-  </si>
-  <si>
-    <t>P405D</t>
   </si>
   <si>
     <t>Pro32xD</t>
@@ -146,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,7 +596,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -612,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -644,13 +642,13 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="G6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -674,28 +672,28 @@
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -706,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>14</v>
@@ -716,28 +714,28 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="K8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="N8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -748,7 +746,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>14</v>
@@ -766,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E10" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F10" s="14"/>
     </row>
@@ -783,14 +781,14 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -801,8 +799,8 @@
       <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
+      <c r="C12" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>14</v>
@@ -811,24 +809,6 @@
         <v>14</v>
       </c>
       <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="6">
-        <v>14</v>
-      </c>
-      <c r="F13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36AC26-CA17-4B58-9AF2-7D6A9DB0367B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -139,12 +138,18 @@
   </si>
   <si>
     <t>XBus Connections</t>
+  </si>
+  <si>
+    <t>Loading Details Name</t>
+  </si>
+  <si>
+    <t>40V (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="F7" sqref="F7:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +675,9 @@
       <c r="E7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
@@ -712,7 +719,9 @@
       <c r="E8" s="6">
         <v>14</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>39</v>
+      </c>
       <c r="G8" s="6" t="s">
         <v>28</v>
       </c>
@@ -754,7 +763,9 @@
       <c r="E9" s="6">
         <v>14</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -772,7 +783,9 @@
       <c r="E10" s="6">
         <v>6</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -790,7 +803,9 @@
       <c r="E11" s="6">
         <v>14</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -808,7 +823,9 @@
       <c r="E12" s="6">
         <v>14</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,7 +143,7 @@
     <t>Loading Details Name</t>
   </si>
   <si>
-    <t>40V (A)</t>
+    <t>40V Rail(A)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F12"/>
+      <selection activeCell="F9" sqref="F9:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
+++ b/Test Data/Verify_40V_On_Addition_Deletion_Of_Accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E34F27-ED48-4555-80C8-9CE0BF0E2684}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Color Codes</t>
   </si>
@@ -50,9 +51,6 @@
     <t>Expected value</t>
   </si>
   <si>
-    <t>MX 4000</t>
-  </si>
-  <si>
     <t>Panel Name</t>
   </si>
   <si>
@@ -74,27 +72,9 @@
     <t>Row Number</t>
   </si>
   <si>
-    <t>MZX 125</t>
-  </si>
-  <si>
-    <t>Pro32xD</t>
-  </si>
-  <si>
-    <t>MX2-100</t>
-  </si>
-  <si>
-    <t>P885D</t>
-  </si>
-  <si>
-    <t>PFI</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>CPU 801</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify 40V Load On Addition Deletion of Ethernet </t>
   </si>
   <si>
@@ -110,30 +90,18 @@
     <t>Gallery Type</t>
   </si>
   <si>
-    <t>MPM800</t>
-  </si>
-  <si>
     <t>Miscellaneous</t>
   </si>
   <si>
     <t>RBus Connections</t>
   </si>
   <si>
-    <t>MPM800-1</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
     <t>R-Bus</t>
   </si>
   <si>
     <t>Attached Functionality</t>
   </si>
   <si>
-    <t>Zonal Alarm/Fault Display 16</t>
-  </si>
-  <si>
     <t>X-Bus</t>
   </si>
   <si>
@@ -144,12 +112,30 @@
   </si>
   <si>
     <t>40V Rail(A)</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>PZ4DS</t>
+  </si>
+  <si>
+    <t>PR1D2</t>
+  </si>
+  <si>
+    <t>PR1D2-1</t>
+  </si>
+  <si>
+    <t>NGC-601/T1459 OR TC-210</t>
+  </si>
+  <si>
+    <t>MZX252</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,11 +551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>0</v>
@@ -615,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -628,7 +614,9 @@
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -647,13 +635,13 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="G6" s="18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -661,170 +649,90 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="L7" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="6">
         <v>14</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="K8" s="15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="6">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6">
-        <v>6</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6">
-        <v>14</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="6">
-        <v>14</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
